--- a/jpcore-r4/feature/swg5-immunizationへのJPCore参照等/StructureDefinition-jp-coverage-insuredpersonsymbol.xlsx
+++ b/jpcore-r4/feature/swg5-immunizationへのJPCore参照等/StructureDefinition-jp-coverage-insuredpersonsymbol.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="106">
   <si>
     <t>Property</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>健康保険における被保険者証記号</t>
+  </si>
+  <si>
+    <t>健康保険における被保険者証記号を示す拡張。被保険者記号の全角文字列。</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -840,7 +843,7 @@
         <v>22</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
@@ -899,10 +902,10 @@
         <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>75</v>
@@ -910,7 +913,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -921,7 +924,7 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>75</v>
@@ -933,13 +936,13 @@
         <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -990,13 +993,13 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>75</v>
@@ -1005,12 +1008,12 @@
         <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1033,13 +1036,13 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1078,19 +1081,19 @@
         <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
@@ -1102,7 +1105,7 @@
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
@@ -1110,7 +1113,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1118,10 +1121,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>75</v>
@@ -1133,16 +1136,16 @@
         <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1192,13 +1195,13 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>75</v>
@@ -1207,12 +1210,12 @@
         <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1223,7 +1226,7 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>75</v>
@@ -1235,13 +1238,13 @@
         <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1292,22 +1295,22 @@
         <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
